--- a/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10517</v>
+        <v>10476</v>
       </c>
       <c r="D2" t="n">
-        <v>14425060</v>
+        <v>14373827</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +564,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20726</v>
+        <v>20656</v>
       </c>
       <c r="D4" t="n">
-        <v>26471125</v>
+        <v>26399127</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +602,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D5" t="n">
-        <v>289801</v>
+        <v>286101</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +640,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="D6" t="n">
-        <v>1503399</v>
+        <v>1493263</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +678,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58026</v>
+        <v>57837</v>
       </c>
       <c r="D7" t="n">
-        <v>83435358</v>
+        <v>83170580</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +716,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75554</v>
+        <v>75178</v>
       </c>
       <c r="D8" t="n">
-        <v>100590806</v>
+        <v>100105648</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +754,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23283</v>
+        <v>23004</v>
       </c>
       <c r="D9" t="n">
-        <v>32453089</v>
+        <v>32060343</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +792,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61701</v>
+        <v>61441</v>
       </c>
       <c r="D10" t="n">
-        <v>88463639</v>
+        <v>88093735</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +830,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8420</v>
+        <v>8367</v>
       </c>
       <c r="D11" t="n">
-        <v>11008996</v>
+        <v>10938106</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +868,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3668</v>
+        <v>3656</v>
       </c>
       <c r="D12" t="n">
-        <v>5167776</v>
+        <v>5149776</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +906,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13968</v>
+        <v>13920</v>
       </c>
       <c r="D13" t="n">
-        <v>18918096</v>
+        <v>18856332</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +944,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43796</v>
+        <v>43612</v>
       </c>
       <c r="D14" t="n">
-        <v>59123412</v>
+        <v>58878902</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +982,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20724</v>
+        <v>20618</v>
       </c>
       <c r="D15" t="n">
-        <v>26855668</v>
+        <v>26719756</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +1058,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40728</v>
+        <v>40492</v>
       </c>
       <c r="D17" t="n">
-        <v>51673795</v>
+        <v>51410086</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1096,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46864</v>
+        <v>46777</v>
       </c>
       <c r="D18" t="n">
-        <v>62706328</v>
+        <v>62604394</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1134,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25803</v>
+        <v>25558</v>
       </c>
       <c r="D19" t="n">
-        <v>31654684</v>
+        <v>31360252</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1172,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>48494</v>
+        <v>48367</v>
       </c>
       <c r="D20" t="n">
-        <v>59041986</v>
+        <v>58902332</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1210,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3622</v>
+        <v>3604</v>
       </c>
       <c r="D21" t="n">
-        <v>4983239</v>
+        <v>4960301</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1286,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5791</v>
+        <v>5769</v>
       </c>
       <c r="D23" t="n">
-        <v>7289354</v>
+        <v>7265230</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1294,10 +1362,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" t="n">
-        <v>588089</v>
+        <v>587191</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1400,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14181</v>
+        <v>14140</v>
       </c>
       <c r="D26" t="n">
-        <v>20319936</v>
+        <v>20260311</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1438,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23128</v>
+        <v>23064</v>
       </c>
       <c r="D27" t="n">
-        <v>30346765</v>
+        <v>30267442</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1476,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2970</v>
+        <v>2944</v>
       </c>
       <c r="D28" t="n">
-        <v>4033782</v>
+        <v>3997631</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1514,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17913</v>
+        <v>17846</v>
       </c>
       <c r="D29" t="n">
-        <v>25483731</v>
+        <v>25394656</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1552,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="D30" t="n">
-        <v>1961011</v>
+        <v>1949955</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1590,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D31" t="n">
-        <v>1177453</v>
+        <v>1174769</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1628,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3085</v>
+        <v>3072</v>
       </c>
       <c r="D32" t="n">
-        <v>4079089</v>
+        <v>4062183</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1666,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8465</v>
+        <v>8433</v>
       </c>
       <c r="D33" t="n">
-        <v>11392713</v>
+        <v>11351589</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1704,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4184</v>
+        <v>4168</v>
       </c>
       <c r="D34" t="n">
-        <v>5325694</v>
+        <v>5307272</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1780,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6083</v>
+        <v>6040</v>
       </c>
       <c r="D36" t="n">
-        <v>7278218</v>
+        <v>7232245</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1818,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10311</v>
+        <v>10286</v>
       </c>
       <c r="D37" t="n">
-        <v>13682838</v>
+        <v>13651997</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1856,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6509</v>
+        <v>6451</v>
       </c>
       <c r="D38" t="n">
-        <v>7786087</v>
+        <v>7720998</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1894,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14737</v>
+        <v>14703</v>
       </c>
       <c r="D39" t="n">
-        <v>18105470</v>
+        <v>18067432</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1932,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2982</v>
+        <v>2967</v>
       </c>
       <c r="D40" t="n">
-        <v>4068199</v>
+        <v>4047219</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +2008,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7686</v>
+        <v>7662</v>
       </c>
       <c r="D42" t="n">
-        <v>9427425</v>
+        <v>9400266</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2016,10 +2084,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D44" t="n">
-        <v>369696</v>
+        <v>368196</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2122,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15791</v>
+        <v>15757</v>
       </c>
       <c r="D45" t="n">
-        <v>22539493</v>
+        <v>22494094</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2160,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24884</v>
+        <v>24788</v>
       </c>
       <c r="D46" t="n">
-        <v>33242557</v>
+        <v>33122025</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2198,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3836</v>
+        <v>3791</v>
       </c>
       <c r="D47" t="n">
-        <v>5299489</v>
+        <v>5238442</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2236,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24205</v>
+        <v>24117</v>
       </c>
       <c r="D48" t="n">
-        <v>34682240</v>
+        <v>34559884</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2274,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2540</v>
+        <v>2515</v>
       </c>
       <c r="D49" t="n">
-        <v>3195358</v>
+        <v>3167822</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2312,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D50" t="n">
-        <v>1550895</v>
+        <v>1544895</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2350,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4616</v>
+        <v>4596</v>
       </c>
       <c r="D51" t="n">
-        <v>6028957</v>
+        <v>6001420</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2388,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12616</v>
+        <v>12559</v>
       </c>
       <c r="D52" t="n">
-        <v>16935441</v>
+        <v>16859236</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2426,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5364</v>
+        <v>5337</v>
       </c>
       <c r="D53" t="n">
-        <v>6670680</v>
+        <v>6640751</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2502,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6810</v>
+        <v>6778</v>
       </c>
       <c r="D55" t="n">
-        <v>8306806</v>
+        <v>8269477</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2540,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17151</v>
+        <v>17123</v>
       </c>
       <c r="D56" t="n">
-        <v>23096221</v>
+        <v>23061145</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2578,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8142</v>
+        <v>8067</v>
       </c>
       <c r="D57" t="n">
-        <v>9737883</v>
+        <v>9652926</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2616,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16521</v>
+        <v>16492</v>
       </c>
       <c r="D58" t="n">
-        <v>20370527</v>
+        <v>20343526</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2654,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="D59" t="n">
-        <v>3602882</v>
+        <v>3583915</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2692,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4837</v>
+        <v>4817</v>
       </c>
       <c r="D60" t="n">
-        <v>6135895</v>
+        <v>6113267</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2768,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D62" t="n">
-        <v>305745</v>
+        <v>304345</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2806,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14015</v>
+        <v>13963</v>
       </c>
       <c r="D63" t="n">
-        <v>20019350</v>
+        <v>19947260</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2844,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18793</v>
+        <v>18722</v>
       </c>
       <c r="D64" t="n">
-        <v>24480066</v>
+        <v>24391513</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2882,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4388</v>
+        <v>4327</v>
       </c>
       <c r="D65" t="n">
-        <v>6157443</v>
+        <v>6070908</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2920,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14404</v>
+        <v>14332</v>
       </c>
       <c r="D66" t="n">
-        <v>20646971</v>
+        <v>20543799</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2958,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="D67" t="n">
-        <v>2221247</v>
+        <v>2208711</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2996,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D68" t="n">
-        <v>1027711</v>
+        <v>1025911</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +3034,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3160</v>
+        <v>3141</v>
       </c>
       <c r="D69" t="n">
-        <v>4238316</v>
+        <v>4213127</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3072,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7926</v>
+        <v>7896</v>
       </c>
       <c r="D70" t="n">
-        <v>10709696</v>
+        <v>10670044</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3110,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4279</v>
+        <v>4264</v>
       </c>
       <c r="D71" t="n">
-        <v>5413191</v>
+        <v>5394878</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4951</v>
+        <v>4924</v>
       </c>
       <c r="D73" t="n">
-        <v>6150128</v>
+        <v>6120357</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3224,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8774</v>
+        <v>8760</v>
       </c>
       <c r="D74" t="n">
-        <v>11586456</v>
+        <v>11569448</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3262,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5829</v>
+        <v>5781</v>
       </c>
       <c r="D75" t="n">
-        <v>7117145</v>
+        <v>7061601</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3300,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13221</v>
+        <v>13198</v>
       </c>
       <c r="D76" t="n">
-        <v>16217506</v>
+        <v>16194588</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3338,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="D77" t="n">
-        <v>3350475</v>
+        <v>3333217</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3376,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D78" t="n">
-        <v>2520671</v>
+        <v>2517671</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3452,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="D80" t="n">
-        <v>6621132</v>
+        <v>6597132</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3490,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5058</v>
+        <v>5035</v>
       </c>
       <c r="D81" t="n">
-        <v>7048236</v>
+        <v>7015140</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3528,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D82" t="n">
-        <v>1181260</v>
+        <v>1175336</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3566,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5525</v>
+        <v>5485</v>
       </c>
       <c r="D83" t="n">
-        <v>7939701</v>
+        <v>7881515</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3612,10 +3680,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D86" t="n">
-        <v>1818661</v>
+        <v>1812842</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3718,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3314</v>
+        <v>3297</v>
       </c>
       <c r="D87" t="n">
-        <v>4607575</v>
+        <v>4587574</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3756,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1898</v>
+        <v>1880</v>
       </c>
       <c r="D88" t="n">
-        <v>2417744</v>
+        <v>2396338</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3794,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="D89" t="n">
-        <v>1189156</v>
+        <v>1177318</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3832,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D90" t="n">
-        <v>2362679</v>
+        <v>2358249</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3870,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="D91" t="n">
-        <v>1435710</v>
+        <v>1425626</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3908,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2657</v>
+        <v>2650</v>
       </c>
       <c r="D92" t="n">
-        <v>3198027</v>
+        <v>3188425</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3946,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4990</v>
+        <v>4974</v>
       </c>
       <c r="D93" t="n">
-        <v>6943933</v>
+        <v>6923660</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +4022,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10089</v>
+        <v>10056</v>
       </c>
       <c r="D95" t="n">
-        <v>13113838</v>
+        <v>13076978</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="D97" t="n">
-        <v>1460571</v>
+        <v>1446273</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4136,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>29448</v>
+        <v>29362</v>
       </c>
       <c r="D98" t="n">
-        <v>42315853</v>
+        <v>42190997</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4174,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>42597</v>
+        <v>42434</v>
       </c>
       <c r="D99" t="n">
-        <v>56497340</v>
+        <v>56294946</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4212,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7893</v>
+        <v>7814</v>
       </c>
       <c r="D100" t="n">
-        <v>10765936</v>
+        <v>10656057</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4250,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>29230</v>
+        <v>29121</v>
       </c>
       <c r="D101" t="n">
-        <v>42073143</v>
+        <v>41925071</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4288,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3418</v>
+        <v>3405</v>
       </c>
       <c r="D102" t="n">
-        <v>4399866</v>
+        <v>4382666</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4326,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="D103" t="n">
-        <v>2540759</v>
+        <v>2532038</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4364,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5433</v>
+        <v>5413</v>
       </c>
       <c r="D104" t="n">
-        <v>7296723</v>
+        <v>7270486</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4402,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>18600</v>
+        <v>18524</v>
       </c>
       <c r="D105" t="n">
-        <v>24931664</v>
+        <v>24837796</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4440,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>8161</v>
+        <v>8122</v>
       </c>
       <c r="D106" t="n">
-        <v>10423805</v>
+        <v>10375726</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4516,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10315</v>
+        <v>10262</v>
       </c>
       <c r="D108" t="n">
-        <v>12546964</v>
+        <v>12490653</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4554,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21151</v>
+        <v>21107</v>
       </c>
       <c r="D109" t="n">
-        <v>28790834</v>
+        <v>28738330</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4592,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10844</v>
+        <v>10747</v>
       </c>
       <c r="D110" t="n">
-        <v>12933873</v>
+        <v>12816841</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4630,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>30034</v>
+        <v>29985</v>
       </c>
       <c r="D111" t="n">
-        <v>36068145</v>
+        <v>36012191</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4698,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6037</v>
+        <v>5901</v>
       </c>
       <c r="D113" t="n">
-        <v>8273851</v>
+        <v>8110247</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4706,10 +4774,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2870</v>
+        <v>2846</v>
       </c>
       <c r="D115" t="n">
-        <v>4023407</v>
+        <v>3989017</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4820,10 +4888,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4964</v>
+        <v>4908</v>
       </c>
       <c r="D118" t="n">
-        <v>7169426</v>
+        <v>7087641</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4926,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7885</v>
+        <v>7787</v>
       </c>
       <c r="D119" t="n">
-        <v>10934514</v>
+        <v>10802011</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4964,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="D120" t="n">
-        <v>2611750</v>
+        <v>2570931</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +5002,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5286</v>
+        <v>5219</v>
       </c>
       <c r="D121" t="n">
-        <v>7573415</v>
+        <v>7477790</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +5040,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D122" t="n">
-        <v>952203</v>
+        <v>939978</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5010,10 +5078,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D123" t="n">
-        <v>354961</v>
+        <v>351961</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5048,10 +5116,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="D124" t="n">
-        <v>1508231</v>
+        <v>1480973</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5154,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2852</v>
+        <v>2818</v>
       </c>
       <c r="D125" t="n">
-        <v>3999935</v>
+        <v>3950305</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5192,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3415</v>
+        <v>3371</v>
       </c>
       <c r="D126" t="n">
-        <v>4694114</v>
+        <v>4630769</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5230,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="D127" t="n">
-        <v>2105682</v>
+        <v>2096711</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5268,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2214</v>
+        <v>2201</v>
       </c>
       <c r="D128" t="n">
-        <v>3124791</v>
+        <v>3106548</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5306,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D129" t="n">
-        <v>1565705</v>
+        <v>1558885</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5344,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2796</v>
+        <v>2769</v>
       </c>
       <c r="D130" t="n">
-        <v>3649188</v>
+        <v>3615050</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5344,10 +5412,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1688</v>
+        <v>1664</v>
       </c>
       <c r="D132" t="n">
-        <v>2294524</v>
+        <v>2262445</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5382,10 +5450,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D133" t="n">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5420,10 +5488,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="D134" t="n">
-        <v>1144121</v>
+        <v>1123437</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5496,10 +5564,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1995</v>
+        <v>1955</v>
       </c>
       <c r="D136" t="n">
-        <v>2927224</v>
+        <v>2868982</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5534,10 +5602,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1909</v>
+        <v>1880</v>
       </c>
       <c r="D137" t="n">
-        <v>2695739</v>
+        <v>2654816</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5640,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D138" t="n">
-        <v>916413</v>
+        <v>902913</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5678,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1353</v>
+        <v>1335</v>
       </c>
       <c r="D139" t="n">
-        <v>1932145</v>
+        <v>1910345</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5716,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D140" t="n">
-        <v>235442</v>
+        <v>230942</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5724,10 +5792,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D142" t="n">
-        <v>237675</v>
+        <v>232975</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5762,10 +5830,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="D143" t="n">
-        <v>1271751</v>
+        <v>1247751</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5800,10 +5868,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="D144" t="n">
-        <v>1269959</v>
+        <v>1237060</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5906,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D145" t="n">
-        <v>523182</v>
+        <v>517182</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5944,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D146" t="n">
-        <v>640253</v>
+        <v>632753</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5914,10 +5982,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D147" t="n">
-        <v>414834</v>
+        <v>408834</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5952,10 +6020,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D148" t="n">
-        <v>904921</v>
+        <v>899376</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5990,10 +6058,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2735</v>
+        <v>2720</v>
       </c>
       <c r="D149" t="n">
-        <v>3730274</v>
+        <v>3708554</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6066,10 +6134,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7715</v>
+        <v>7695</v>
       </c>
       <c r="D151" t="n">
-        <v>9554357</v>
+        <v>9531179</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6142,10 +6210,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D153" t="n">
-        <v>566854</v>
+        <v>563854</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6180,10 +6248,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>24377</v>
+        <v>24305</v>
       </c>
       <c r="D154" t="n">
-        <v>34624534</v>
+        <v>34522860</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6218,10 +6286,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>40928</v>
+        <v>40767</v>
       </c>
       <c r="D155" t="n">
-        <v>52082921</v>
+        <v>51893934</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6324,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12015</v>
+        <v>11881</v>
       </c>
       <c r="D156" t="n">
-        <v>16513439</v>
+        <v>16327316</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6362,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>28156</v>
+        <v>28043</v>
       </c>
       <c r="D157" t="n">
-        <v>40557141</v>
+        <v>40402721</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6400,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3442</v>
+        <v>3412</v>
       </c>
       <c r="D158" t="n">
-        <v>4457926</v>
+        <v>4416978</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6438,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="D159" t="n">
-        <v>2611260</v>
+        <v>2598488</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6408,10 +6476,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5002</v>
+        <v>4972</v>
       </c>
       <c r="D160" t="n">
-        <v>6702677</v>
+        <v>6663120</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6446,10 +6514,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>17900</v>
+        <v>17830</v>
       </c>
       <c r="D161" t="n">
-        <v>24325223</v>
+        <v>24232747</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6552,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8067</v>
+        <v>8021</v>
       </c>
       <c r="D162" t="n">
-        <v>10117799</v>
+        <v>10056084</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6560,10 +6628,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>9142</v>
+        <v>9092</v>
       </c>
       <c r="D164" t="n">
-        <v>11323659</v>
+        <v>11269790</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6598,10 +6666,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>21742</v>
+        <v>21694</v>
       </c>
       <c r="D165" t="n">
-        <v>29479218</v>
+        <v>29412225</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6704,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>10642</v>
+        <v>10562</v>
       </c>
       <c r="D166" t="n">
-        <v>12885693</v>
+        <v>12790428</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6742,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>28596</v>
+        <v>28544</v>
       </c>
       <c r="D167" t="n">
-        <v>33574240</v>
+        <v>33513422</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6780,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D168" t="n">
-        <v>1148057</v>
+        <v>1139650</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6788,10 +6856,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>20992</v>
+        <v>20864</v>
       </c>
       <c r="D170" t="n">
-        <v>28050680</v>
+        <v>27883521</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6826,10 +6894,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D171" t="n">
-        <v>489173</v>
+        <v>477173</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6864,10 +6932,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D172" t="n">
-        <v>1258908</v>
+        <v>1247924</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6902,10 +6970,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>63470</v>
+        <v>63182</v>
       </c>
       <c r="D173" t="n">
-        <v>91530059</v>
+        <v>91115752</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6940,10 +7008,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>112781</v>
+        <v>111963</v>
       </c>
       <c r="D174" t="n">
-        <v>154419609</v>
+        <v>153336862</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +7046,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>159582</v>
+        <v>157102</v>
       </c>
       <c r="D175" t="n">
-        <v>228521309</v>
+        <v>224969663</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7084,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>73483</v>
+        <v>72931</v>
       </c>
       <c r="D176" t="n">
-        <v>108004548</v>
+        <v>107190545</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7122,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>34518</v>
+        <v>34201</v>
       </c>
       <c r="D177" t="n">
-        <v>47305090</v>
+        <v>46867547</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7160,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7946</v>
+        <v>7907</v>
       </c>
       <c r="D178" t="n">
-        <v>11365519</v>
+        <v>11313643</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7198,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>20295</v>
+        <v>20151</v>
       </c>
       <c r="D179" t="n">
-        <v>28723836</v>
+        <v>28518431</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7236,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>129072</v>
+        <v>128056</v>
       </c>
       <c r="D180" t="n">
-        <v>177414965</v>
+        <v>176030299</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7274,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>34523</v>
+        <v>34294</v>
       </c>
       <c r="D181" t="n">
-        <v>46406590</v>
+        <v>46093118</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7282,10 +7350,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>35679</v>
+        <v>35384</v>
       </c>
       <c r="D183" t="n">
-        <v>43988462</v>
+        <v>43630826</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7320,10 +7388,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>57247</v>
+        <v>57097</v>
       </c>
       <c r="D184" t="n">
-        <v>77335505</v>
+        <v>77150982</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7426,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>54882</v>
+        <v>54334</v>
       </c>
       <c r="D185" t="n">
-        <v>70508405</v>
+        <v>69821261</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7464,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>60156</v>
+        <v>59878</v>
       </c>
       <c r="D186" t="n">
-        <v>78375975</v>
+        <v>78028050</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7502,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4438</v>
+        <v>4371</v>
       </c>
       <c r="D187" t="n">
-        <v>5883187</v>
+        <v>5793070</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7510,10 +7578,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3910</v>
+        <v>3885</v>
       </c>
       <c r="D189" t="n">
-        <v>5240817</v>
+        <v>5207651</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7624,10 +7692,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7291</v>
+        <v>7257</v>
       </c>
       <c r="D192" t="n">
-        <v>10591523</v>
+        <v>10546568</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7662,10 +7730,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>12692</v>
+        <v>12624</v>
       </c>
       <c r="D193" t="n">
-        <v>17282295</v>
+        <v>17195250</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7700,10 +7768,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="D194" t="n">
-        <v>2442918</v>
+        <v>2434518</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7806,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6633</v>
+        <v>6598</v>
       </c>
       <c r="D195" t="n">
-        <v>9388933</v>
+        <v>9341874</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7844,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D196" t="n">
-        <v>1197540</v>
+        <v>1192552</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7882,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D197" t="n">
-        <v>543732</v>
+        <v>541232</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7852,10 +7920,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="D198" t="n">
-        <v>2059965</v>
+        <v>2049615</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7890,10 +7958,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3997</v>
+        <v>3973</v>
       </c>
       <c r="D199" t="n">
-        <v>5620394</v>
+        <v>5587815</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7928,10 +7996,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2341</v>
+        <v>2334</v>
       </c>
       <c r="D200" t="n">
-        <v>3221288</v>
+        <v>3212674</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +8034,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3281</v>
+        <v>3255</v>
       </c>
       <c r="D201" t="n">
-        <v>4269577</v>
+        <v>4239117</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8072,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5070</v>
+        <v>5056</v>
       </c>
       <c r="D202" t="n">
-        <v>7170094</v>
+        <v>7149962</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8110,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2159</v>
+        <v>2150</v>
       </c>
       <c r="D203" t="n">
-        <v>2844166</v>
+        <v>2831666</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8148,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4888</v>
+        <v>4868</v>
       </c>
       <c r="D204" t="n">
-        <v>6234597</v>
+        <v>6209623</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8118,10 +8186,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1622</v>
+        <v>1599</v>
       </c>
       <c r="D205" t="n">
-        <v>2040688</v>
+        <v>2012143</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8156,10 +8224,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="D206" t="n">
-        <v>2537596</v>
+        <v>2522830</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8270,10 +8338,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2984</v>
+        <v>2964</v>
       </c>
       <c r="D209" t="n">
-        <v>4311945</v>
+        <v>4282795</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8308,10 +8376,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5040</v>
+        <v>5006</v>
       </c>
       <c r="D210" t="n">
-        <v>6921786</v>
+        <v>6873848</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8346,10 +8414,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="D211" t="n">
-        <v>2311618</v>
+        <v>2302618</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8452,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2930</v>
+        <v>2912</v>
       </c>
       <c r="D212" t="n">
-        <v>4205212</v>
+        <v>4179267</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8490,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D213" t="n">
-        <v>658006</v>
+        <v>645147</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8528,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D214" t="n">
-        <v>311786</v>
+        <v>309386</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8498,10 +8566,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D215" t="n">
-        <v>898067</v>
+        <v>887047</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8536,10 +8604,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2340</v>
+        <v>2319</v>
       </c>
       <c r="D216" t="n">
-        <v>3245353</v>
+        <v>3216199</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8642,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2234</v>
+        <v>2213</v>
       </c>
       <c r="D217" t="n">
-        <v>3062399</v>
+        <v>3031399</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8680,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="D218" t="n">
-        <v>1601868</v>
+        <v>1588650</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8718,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="D219" t="n">
-        <v>2603564</v>
+        <v>2594684</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8688,10 +8756,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="D220" t="n">
-        <v>1218102</v>
+        <v>1200213</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8726,10 +8794,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2594</v>
+        <v>2570</v>
       </c>
       <c r="D221" t="n">
-        <v>3398298</v>
+        <v>3366080</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8794,10 +8862,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2190</v>
+        <v>2154</v>
       </c>
       <c r="D223" t="n">
-        <v>3223792</v>
+        <v>3170262</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -8832,10 +8900,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D224" t="n">
-        <v>750603</v>
+        <v>735603</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8908,10 +8976,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1611</v>
+        <v>1585</v>
       </c>
       <c r="D226" t="n">
-        <v>2385906</v>
+        <v>2347006</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8946,10 +9014,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>7433</v>
+        <v>7266</v>
       </c>
       <c r="D227" t="n">
-        <v>10677907</v>
+        <v>10428337</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +9052,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1514</v>
+        <v>1484</v>
       </c>
       <c r="D228" t="n">
-        <v>2237715</v>
+        <v>2192910</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9090,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D229" t="n">
-        <v>1255527</v>
+        <v>1235227</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9060,10 +9128,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D230" t="n">
-        <v>142021</v>
+        <v>139021</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9098,10 +9166,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="n">
-        <v>34512</v>
+        <v>33100</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9174,10 +9242,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D233" t="n">
-        <v>429934</v>
+        <v>426934</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -9212,10 +9280,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D234" t="n">
-        <v>444168</v>
+        <v>429168</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9250,10 +9318,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D235" t="n">
-        <v>318721</v>
+        <v>312721</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9288,10 +9356,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D236" t="n">
-        <v>278930</v>
+        <v>271430</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9326,10 +9394,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D237" t="n">
-        <v>206760</v>
+        <v>205260</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9364,10 +9432,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D238" t="n">
-        <v>415775</v>
+        <v>412775</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9402,10 +9470,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3063</v>
+        <v>3056</v>
       </c>
       <c r="D239" t="n">
-        <v>4171976</v>
+        <v>4162465</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9478,10 +9546,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5386</v>
+        <v>5371</v>
       </c>
       <c r="D241" t="n">
-        <v>6827879</v>
+        <v>6811263</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9592,10 +9660,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>15089</v>
+        <v>15063</v>
       </c>
       <c r="D244" t="n">
-        <v>21588805</v>
+        <v>21552414</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9630,10 +9698,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>25813</v>
+        <v>25733</v>
       </c>
       <c r="D245" t="n">
-        <v>33692408</v>
+        <v>33604086</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9736,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4444</v>
+        <v>4388</v>
       </c>
       <c r="D246" t="n">
-        <v>6111444</v>
+        <v>6041294</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9774,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>19448</v>
+        <v>19370</v>
       </c>
       <c r="D247" t="n">
-        <v>27904135</v>
+        <v>27794749</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9812,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1863</v>
+        <v>1850</v>
       </c>
       <c r="D248" t="n">
-        <v>2353904</v>
+        <v>2335784</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9850,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D249" t="n">
-        <v>1587491</v>
+        <v>1584980</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9888,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3685</v>
+        <v>3661</v>
       </c>
       <c r="D250" t="n">
-        <v>4865108</v>
+        <v>4833463</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9858,10 +9926,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>10620</v>
+        <v>10561</v>
       </c>
       <c r="D251" t="n">
-        <v>14372875</v>
+        <v>14295432</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9964,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4858</v>
+        <v>4837</v>
       </c>
       <c r="D252" t="n">
-        <v>6117514</v>
+        <v>6089339</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9972,10 +10040,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>5899</v>
+        <v>5859</v>
       </c>
       <c r="D254" t="n">
-        <v>7061706</v>
+        <v>7019370</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -10010,10 +10078,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>10447</v>
+        <v>10422</v>
       </c>
       <c r="D255" t="n">
-        <v>13801381</v>
+        <v>13770658</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10048,10 +10116,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>7076</v>
+        <v>7014</v>
       </c>
       <c r="D256" t="n">
-        <v>8622310</v>
+        <v>8551948</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10086,10 +10154,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>17481</v>
+        <v>17441</v>
       </c>
       <c r="D257" t="n">
-        <v>21230835</v>
+        <v>21188870</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10192,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>11361</v>
+        <v>11322</v>
       </c>
       <c r="D258" t="n">
-        <v>15699250</v>
+        <v>15647373</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10200,10 +10268,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>16519</v>
+        <v>16474</v>
       </c>
       <c r="D260" t="n">
-        <v>20346972</v>
+        <v>20295018</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10238,10 +10306,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D261" t="n">
-        <v>81693</v>
+        <v>76625</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10276,10 +10344,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D262" t="n">
-        <v>990536</v>
+        <v>987046</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10314,10 +10382,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>43624</v>
+        <v>43510</v>
       </c>
       <c r="D263" t="n">
-        <v>61896792</v>
+        <v>61734854</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10352,10 +10420,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>62808</v>
+        <v>62506</v>
       </c>
       <c r="D264" t="n">
-        <v>82489122</v>
+        <v>82108365</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10458,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>10968</v>
+        <v>10857</v>
       </c>
       <c r="D265" t="n">
-        <v>15057239</v>
+        <v>14901137</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10496,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>43120</v>
+        <v>42944</v>
       </c>
       <c r="D266" t="n">
-        <v>60956520</v>
+        <v>60716366</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10534,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5387</v>
+        <v>5363</v>
       </c>
       <c r="D267" t="n">
-        <v>6957900</v>
+        <v>6929750</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10572,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2807</v>
+        <v>2797</v>
       </c>
       <c r="D268" t="n">
-        <v>3936374</v>
+        <v>3921374</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10610,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>10736</v>
+        <v>10693</v>
       </c>
       <c r="D269" t="n">
-        <v>14180150</v>
+        <v>14128630</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10648,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>30802</v>
+        <v>30683</v>
       </c>
       <c r="D270" t="n">
-        <v>41340595</v>
+        <v>41192978</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10686,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>15496</v>
+        <v>15426</v>
       </c>
       <c r="D271" t="n">
-        <v>19420054</v>
+        <v>19328433</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10694,10 +10762,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>17084</v>
+        <v>16981</v>
       </c>
       <c r="D273" t="n">
-        <v>19996846</v>
+        <v>19880447</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -10732,10 +10800,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>33825</v>
+        <v>33766</v>
       </c>
       <c r="D274" t="n">
-        <v>44674057</v>
+        <v>44602111</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10838,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>17496</v>
+        <v>17349</v>
       </c>
       <c r="D275" t="n">
-        <v>21033022</v>
+        <v>20861533</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10876,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>40103</v>
+        <v>40015</v>
       </c>
       <c r="D276" t="n">
-        <v>47999177</v>
+        <v>47911400</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10914,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>12070</v>
+        <v>12009</v>
       </c>
       <c r="D277" t="n">
-        <v>16229710</v>
+        <v>16149110</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10922,10 +10990,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>17951</v>
+        <v>17886</v>
       </c>
       <c r="D279" t="n">
-        <v>22216294</v>
+        <v>22137704</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -10998,10 +11066,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D281" t="n">
-        <v>895393</v>
+        <v>886193</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -11036,10 +11104,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>55766</v>
+        <v>55600</v>
       </c>
       <c r="D282" t="n">
-        <v>79013936</v>
+        <v>78783509</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11074,10 +11142,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>70511</v>
+        <v>70139</v>
       </c>
       <c r="D283" t="n">
-        <v>92507061</v>
+        <v>92030501</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11180,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>12747</v>
+        <v>12587</v>
       </c>
       <c r="D284" t="n">
-        <v>17176476</v>
+        <v>16965927</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11218,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>51333</v>
+        <v>51108</v>
       </c>
       <c r="D285" t="n">
-        <v>72757340</v>
+        <v>72441472</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11256,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>6479</v>
+        <v>6444</v>
       </c>
       <c r="D286" t="n">
-        <v>8267302</v>
+        <v>8220189</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11294,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="D287" t="n">
-        <v>4020177</v>
+        <v>4012677</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11332,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>12179</v>
+        <v>12124</v>
       </c>
       <c r="D288" t="n">
-        <v>16235949</v>
+        <v>16163134</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11370,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>35104</v>
+        <v>34965</v>
       </c>
       <c r="D289" t="n">
-        <v>47511430</v>
+        <v>47327418</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11408,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>16981</v>
+        <v>16880</v>
       </c>
       <c r="D290" t="n">
-        <v>21369243</v>
+        <v>21237690</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11416,10 +11484,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>20769</v>
+        <v>20657</v>
       </c>
       <c r="D292" t="n">
-        <v>24393714</v>
+        <v>24267409</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -11454,10 +11522,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>36886</v>
+        <v>36773</v>
       </c>
       <c r="D293" t="n">
-        <v>48896203</v>
+        <v>48756973</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11560,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>20299</v>
+        <v>20078</v>
       </c>
       <c r="D294" t="n">
-        <v>24332146</v>
+        <v>24074536</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11598,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>41088</v>
+        <v>40978</v>
       </c>
       <c r="D295" t="n">
-        <v>47793740</v>
+        <v>47686270</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11636,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3819</v>
+        <v>3807</v>
       </c>
       <c r="D296" t="n">
-        <v>5332654</v>
+        <v>5318725</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11644,10 +11712,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>7360</v>
+        <v>7337</v>
       </c>
       <c r="D298" t="n">
-        <v>9115578</v>
+        <v>9093634</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -11720,10 +11788,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D300" t="n">
-        <v>666690</v>
+        <v>653190</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -11758,10 +11826,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>17687</v>
+        <v>17639</v>
       </c>
       <c r="D301" t="n">
-        <v>25346729</v>
+        <v>25279236</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11796,10 +11864,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>27514</v>
+        <v>27401</v>
       </c>
       <c r="D302" t="n">
-        <v>36033602</v>
+        <v>35884292</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11902,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>5736</v>
+        <v>5656</v>
       </c>
       <c r="D303" t="n">
-        <v>8031174</v>
+        <v>7921090</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11940,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>20811</v>
+        <v>20707</v>
       </c>
       <c r="D304" t="n">
-        <v>29851882</v>
+        <v>29704550</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11978,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3000</v>
+        <v>2982</v>
       </c>
       <c r="D305" t="n">
-        <v>3853462</v>
+        <v>3829000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +12016,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="D306" t="n">
-        <v>2420573</v>
+        <v>2410474</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11986,10 +12054,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>5347</v>
+        <v>5329</v>
       </c>
       <c r="D307" t="n">
-        <v>7164937</v>
+        <v>7143589</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12024,10 +12092,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>16135</v>
+        <v>16067</v>
       </c>
       <c r="D308" t="n">
-        <v>21785556</v>
+        <v>21698735</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12130,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>6037</v>
+        <v>6015</v>
       </c>
       <c r="D309" t="n">
-        <v>7784351</v>
+        <v>7756611</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12168,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7731</v>
+        <v>7686</v>
       </c>
       <c r="D310" t="n">
-        <v>9303262</v>
+        <v>9252770</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12206,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>18888</v>
+        <v>18859</v>
       </c>
       <c r="D311" t="n">
-        <v>24898022</v>
+        <v>24864447</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12244,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>9593</v>
+        <v>9523</v>
       </c>
       <c r="D312" t="n">
-        <v>11719107</v>
+        <v>11637719</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12282,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>20189</v>
+        <v>20156</v>
       </c>
       <c r="D313" t="n">
-        <v>24832683</v>
+        <v>24799215</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12320,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5144</v>
+        <v>5117</v>
       </c>
       <c r="D314" t="n">
-        <v>6996222</v>
+        <v>6960503</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12328,10 +12396,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>17125</v>
+        <v>17066</v>
       </c>
       <c r="D316" t="n">
-        <v>22178590</v>
+        <v>22113227</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -12404,10 +12472,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D318" t="n">
-        <v>417529</v>
+        <v>417152</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -12442,10 +12510,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>49080</v>
+        <v>48918</v>
       </c>
       <c r="D319" t="n">
-        <v>69992733</v>
+        <v>69760258</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12480,10 +12548,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>74691</v>
+        <v>74367</v>
       </c>
       <c r="D320" t="n">
-        <v>99364686</v>
+        <v>98952112</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12586,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>21337</v>
+        <v>21127</v>
       </c>
       <c r="D321" t="n">
-        <v>29930163</v>
+        <v>29644239</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12624,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>49194</v>
+        <v>48979</v>
       </c>
       <c r="D322" t="n">
-        <v>70940626</v>
+        <v>70633916</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12662,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>7035</v>
+        <v>6987</v>
       </c>
       <c r="D323" t="n">
-        <v>9174903</v>
+        <v>9112832</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12700,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3250</v>
+        <v>3239</v>
       </c>
       <c r="D324" t="n">
-        <v>4583734</v>
+        <v>4567360</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12738,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>15106</v>
+        <v>15030</v>
       </c>
       <c r="D325" t="n">
-        <v>20813033</v>
+        <v>20712458</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12776,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>38015</v>
+        <v>37859</v>
       </c>
       <c r="D326" t="n">
-        <v>51670485</v>
+        <v>51465216</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12814,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>20552</v>
+        <v>20460</v>
       </c>
       <c r="D327" t="n">
-        <v>26590236</v>
+        <v>26475577</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12822,10 +12890,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>22133</v>
+        <v>22013</v>
       </c>
       <c r="D329" t="n">
-        <v>26878407</v>
+        <v>26740831</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -12860,10 +12928,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>33959</v>
+        <v>33888</v>
       </c>
       <c r="D330" t="n">
-        <v>45184104</v>
+        <v>45104241</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12966,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>19090</v>
+        <v>18957</v>
       </c>
       <c r="D331" t="n">
-        <v>23724300</v>
+        <v>23559290</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +13004,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>40840</v>
+        <v>40740</v>
       </c>
       <c r="D332" t="n">
-        <v>48707204</v>
+        <v>48597163</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
